--- a/Data/aearep-785/candidatepackages.xlsx
+++ b/Data/aearep-785/candidatepackages.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>(Potential) missing package found</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>unique</t>
   </si>
   <si>
@@ -34,9 +31,6 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>project</t>
   </si>
   <si>
@@ -55,9 +49,6 @@
     <t>decompose</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>delta</t>
   </si>
   <si>
@@ -70,30 +61,24 @@
     <t>next</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>usd</t>
   </si>
   <si>
     <t>moments</t>
   </si>
   <si>
-    <t>tr</t>
-  </si>
-  <si>
-    <t>usd</t>
-  </si>
-  <si>
     <t>contrast</t>
   </si>
   <si>
+    <t>examples</t>
+  </si>
+  <si>
     <t>digits</t>
   </si>
   <si>
-    <t>examples</t>
-  </si>
-  <si>
     <t>concordance</t>
   </si>
   <si>
@@ -109,9 +94,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-785</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-785/118824/STATA/01_Trade Data</t>
   </si>
   <si>
@@ -139,12 +121,6 @@
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>STAN_bilat_trade.do</t>
   </si>
   <si>
@@ -158,9 +134,6 @@
   </si>
   <si>
     <t>Est_v.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>data_est_v.do</t>
@@ -210,7 +183,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D22"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -218,13 +191,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -232,7 +205,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -244,7 +217,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -268,7 +241,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>293</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -280,10 +253,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>267</v>
+        <v>547</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.18082644045352936</v>
       </c>
       <c r="D6"/>
     </row>
@@ -292,10 +265,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>279</v>
+        <v>560</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.18512396514415741</v>
       </c>
       <c r="D7"/>
     </row>
@@ -304,10 +277,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>503</v>
+        <v>611</v>
       </c>
       <c r="C8">
-        <v>0.16677719354629517</v>
+        <v>0.20198346674442291</v>
       </c>
       <c r="D8"/>
     </row>
@@ -316,10 +289,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>515</v>
+        <v>741</v>
       </c>
       <c r="C9">
-        <v>0.17075596749782562</v>
+        <v>0.24495868384838104</v>
       </c>
       <c r="D9"/>
     </row>
@@ -328,10 +301,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>564</v>
+        <v>746</v>
       </c>
       <c r="C10">
-        <v>0.18700265884399414</v>
+        <v>0.24661156535148621</v>
       </c>
       <c r="D10"/>
     </row>
@@ -340,10 +313,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>661</v>
+        <v>987</v>
       </c>
       <c r="C11">
-        <v>0.21916446089744568</v>
+        <v>0.32628098130226135</v>
       </c>
       <c r="D11"/>
     </row>
@@ -352,10 +325,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>698</v>
+        <v>1125</v>
       </c>
       <c r="C12">
-        <v>0.23143236339092255</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D12"/>
     </row>
@@ -364,10 +337,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>984</v>
+        <v>1365</v>
       </c>
       <c r="C13">
-        <v>0.32625994086265564</v>
+        <v>0.45123967528343201</v>
       </c>
       <c r="D13"/>
     </row>
@@ -376,10 +349,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1124</v>
+        <v>1497</v>
       </c>
       <c r="C14">
-        <v>0.37267905473709106</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D14"/>
     </row>
@@ -388,10 +361,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1194</v>
+        <v>1880</v>
       </c>
       <c r="C15">
-        <v>0.39588859677314758</v>
+        <v>0.62148761749267578</v>
       </c>
       <c r="D15"/>
     </row>
@@ -400,10 +373,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1380</v>
+        <v>1975</v>
       </c>
       <c r="C16">
-        <v>0.45755967497825623</v>
+        <v>0.6528925895690918</v>
       </c>
       <c r="D16"/>
     </row>
@@ -412,10 +385,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1660</v>
+        <v>2008</v>
       </c>
       <c r="C17">
-        <v>0.55039787292480469</v>
+        <v>0.66380167007446289</v>
       </c>
       <c r="D17"/>
     </row>
@@ -424,10 +397,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1798</v>
+        <v>2102</v>
       </c>
       <c r="C18">
-        <v>0.5961538553237915</v>
+        <v>0.69487601518630981</v>
       </c>
       <c r="D18"/>
     </row>
@@ -436,10 +409,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1817</v>
+        <v>2398</v>
       </c>
       <c r="C19">
-        <v>0.60245358943939209</v>
+        <v>0.79272729158401489</v>
       </c>
       <c r="D19"/>
     </row>
@@ -448,10 +421,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1859</v>
+        <v>2495</v>
       </c>
       <c r="C20">
-        <v>0.61637932062149048</v>
+        <v>0.82479339838027954</v>
       </c>
       <c r="D20"/>
     </row>
@@ -460,10 +433,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1905</v>
+        <v>2540</v>
       </c>
       <c r="C21">
-        <v>0.63163131475448608</v>
+        <v>0.83966940641403198</v>
       </c>
       <c r="D21"/>
     </row>
@@ -472,72 +445,12 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1951</v>
+        <v>2849</v>
       </c>
       <c r="C22">
-        <v>0.64688330888748169</v>
+        <v>0.94181817770004272</v>
       </c>
       <c r="D22"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>2217</v>
-      </c>
-      <c r="C23">
-        <v>0.73507958650588989</v>
-      </c>
-      <c r="D23"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>2345</v>
-      </c>
-      <c r="C24">
-        <v>0.77751988172531128</v>
-      </c>
-      <c r="D24"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>2375</v>
-      </c>
-      <c r="C25">
-        <v>0.78746682405471802</v>
-      </c>
-      <c r="D25"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>2427</v>
-      </c>
-      <c r="C26">
-        <v>0.80470824241638184</v>
-      </c>
-      <c r="D26"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>2761</v>
-      </c>
-      <c r="C27">
-        <v>0.91545093059539795</v>
-      </c>
-      <c r="D27"/>
     </row>
   </sheetData>
 </worksheet>
@@ -545,111 +458,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B10"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
